--- a/Bases/Metas_Olitef.xlsx
+++ b/Bases/Metas_Olitef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djdan\Documents\GitHub\Dash-Upmat\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417DAB2-3E41-4635-8999-A0DC83BA3549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087800B4-5BC9-4849-9B96-AE04477B2048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F1E2D47D-7B76-4F3F-ACBF-BB7F37B470B1}"/>
+    <workbookView xWindow="23880" yWindow="510" windowWidth="20730" windowHeight="11040" xr2:uid="{F1E2D47D-7B76-4F3F-ACBF-BB7F37B470B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mês</t>
   </si>
   <si>
     <t>Meta</t>
-  </si>
-  <si>
-    <t>2025-04</t>
-  </si>
-  <si>
-    <t>2025-03</t>
-  </si>
-  <si>
-    <t>2025-05</t>
-  </si>
-  <si>
-    <t>2025-06</t>
-  </si>
-  <si>
-    <t>2025-07</t>
-  </si>
-  <si>
-    <t>2025-08</t>
-  </si>
-  <si>
-    <t>2025-09</t>
   </si>
 </sst>
 </file>
@@ -104,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +423,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,56 +437,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>45746</v>
       </c>
       <c r="B2">
         <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>45777</v>
       </c>
       <c r="B3">
         <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>45807</v>
       </c>
       <c r="B4">
         <v>4250</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>45838</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="1">
+        <v>45868</v>
       </c>
       <c r="B6">
         <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>45899</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>45930</v>
       </c>
       <c r="B8">
         <v>3750</v>

--- a/Bases/Metas_Olitef.xlsx
+++ b/Bases/Metas_Olitef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djdan\Documents\GitHub\Dash-Upmat\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087800B4-5BC9-4849-9B96-AE04477B2048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CB025B-7565-49D1-BA09-62ED0401578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="510" windowWidth="20730" windowHeight="11040" xr2:uid="{F1E2D47D-7B76-4F3F-ACBF-BB7F37B470B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F1E2D47D-7B76-4F3F-ACBF-BB7F37B470B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BD13CC-737A-49CC-928F-4699D2F43C05}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
